--- a/DungeonShooting_ExcelTool/excelFile/Weapon.xlsx
+++ b/DungeonShooting_ExcelTool/excelFile/Weapon.xlsx
@@ -16,23 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Prefab</t>
+    <t>WeaponId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Icon</t>
   </si>
   <si>
     <t>Weight</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>WeightType</t>
   </si>
   <si>
@@ -111,18 +111,18 @@
     <t>ScatteringRangeBackTime</t>
   </si>
   <si>
+    <t>MinDistance</t>
+  </si>
+  <si>
     <t>MaxDistance</t>
   </si>
   <si>
-    <t>MinDistance</t>
+    <t>MinBacklash</t>
   </si>
   <si>
     <t>MaxBacklash</t>
   </si>
   <si>
-    <t>MinBacklash</t>
-  </si>
-  <si>
     <t>BacklashRegressionSpeed</t>
   </si>
   <si>
@@ -141,20 +141,46 @@
     <t>ThrowCollisionSize</t>
   </si>
   <si>
-    <t>物体唯一id
-不需要添加类型前缀</t>
-  </si>
-  <si>
-    <t>武器 Prefab, 必须继承场景 "res://prefab/weapon/Weapon.tscn"</t>
+    <t>ShootSound</t>
+  </si>
+  <si>
+    <t>ReloadSound</t>
+  </si>
+  <si>
+    <t>ReloadSoundDelayTime</t>
+  </si>
+  <si>
+    <t>EquipSound</t>
+  </si>
+  <si>
+    <t>EquipSoundDelayTime</t>
+  </si>
+  <si>
+    <t>AiUseAttributeId</t>
+  </si>
+  <si>
+    <t>AiTargetLockingTime</t>
+  </si>
+  <si>
+    <t>AiBulletSpeedScale</t>
+  </si>
+  <si>
+    <t>AiAmmoConsumptionProbability</t>
+  </si>
+  <si>
+    <t>武器属性id</t>
+  </si>
+  <si>
+    <t>属性绑定武器的Id,如果是Ai使用的数据, 则填空字符串串</t>
+  </si>
+  <si>
+    <t>武器显示的名称</t>
+  </si>
+  <si>
+    <t>武器的图标</t>
   </si>
   <si>
     <t>重量</t>
-  </si>
-  <si>
-    <t>武器显示的名称</t>
-  </si>
-  <si>
-    <t>武器的图标</t>
   </si>
   <si>
     <t>武器类型:
@@ -172,10 +198,10 @@
     <t>弹药容量上限</t>
   </si>
   <si>
-    <t>起始备用弹药数量</t>
-  </si>
-  <si>
-    <t>装弹时间, 单位: 秒</t>
+    <t>默认起始备用弹药数量</t>
+  </si>
+  <si>
+    <t>装弹时间 (单位: 秒)</t>
   </si>
   <si>
     <t>每粒子弹是否是单独装填, 如果是, 那么每上一发子弹的时间就是 ReloadTime, 可以做霰弹武器装填效果</t>
@@ -238,18 +264,18 @@
     <t>松开扳机多久后开始销退散射值 (单位: 秒)</t>
   </si>
   <si>
+    <t>子弹飞行最小距离</t>
+  </si>
+  <si>
     <t>子弹飞行最大距离</t>
   </si>
   <si>
-    <t>子弹飞行最小距离</t>
+    <t>最小后坐力 (仅用于开火后武器身抖动)</t>
   </si>
   <si>
     <t>最大后坐力 (仅用于开火后武器身抖动)</t>
   </si>
   <si>
-    <t>最小后坐力 (仅用于开火后武器身抖动)</t>
-  </si>
-  <si>
     <t>后坐力偏移回归回归速度</t>
   </si>
   <si>
@@ -268,6 +294,38 @@
     <t>投抛状态下物体碰撞器大小</t>
   </si>
   <si>
+    <t>射击音效</t>
+  </si>
+  <si>
+    <t>换弹音效</t>
+  </si>
+  <si>
+    <t>换弹音效延时时间</t>
+  </si>
+  <si>
+    <t>上膛音效</t>
+  </si>
+  <si>
+    <t>上膛音效延时时间</t>
+  </si>
+  <si>
+    <t>Ai属性
+Ai 使用该武器时的武器数据, 设置该字段, 可让同一把武器在敌人和玩家手上有不同属性
+如果不填则Ai和玩家使用同一种属性</t>
+  </si>
+  <si>
+    <t>Ai属性
+目标锁定时间, 也就是瞄准目标多久才会开火, (单位: 秒)</t>
+  </si>
+  <si>
+    <t>Ai属性
+Ai使用该武器发射的子弹速度缩放比</t>
+  </si>
+  <si>
+    <t>Ai属性
+Ai使用该武器消耗弹药的概率, (0 - 1)</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -287,6 +345,90 @@
   </si>
   <si>
     <t>0001</t>
+  </si>
+  <si>
+    <t>weapon0001</t>
+  </si>
+  <si>
+    <t>步枪</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/gun/gun4.png</t>
+  </si>
+  <si>
+    <t>bullet0001</t>
+  </si>
+  <si>
+    <t>{"X":20,"Y":15}</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Shooting0002.mp3</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>weapon0002</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>bullet0002</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Shooting0003.mp3</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>weapon0003</t>
+  </si>
+  <si>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Shooting0001.ogg</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading0001.mp3</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>weapon0004</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>weapon0005</t>
+  </si>
+  <si>
+    <t>狙击枪</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading0002.ogg</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading0004.ogg</t>
   </si>
 </sst>
 </file>
@@ -902,14 +1044,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1260,24 +1411,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.2314814814815" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6851851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.4722222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1111111111111" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.1111111111111" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.2222222222222" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1851851851852" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.0555555555556" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.2222222222222" style="1" customWidth="1"/>
     <col min="14" max="14" width="22.2222222222222" style="1" customWidth="1"/>
     <col min="15" max="15" width="27.6666666666667" style="1" customWidth="1"/>
@@ -1297,20 +1454,23 @@
     <col min="29" max="29" width="25.8888888888889" style="1" customWidth="1"/>
     <col min="30" max="30" width="24.7777777777778" style="1" customWidth="1"/>
     <col min="31" max="31" width="28.8888888888889" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.0092592592593" style="1" customWidth="1"/>
-    <col min="35" max="35" width="20" style="1" customWidth="1"/>
+    <col min="32" max="32" width="17.7777777777778" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.0092592592593" style="1" customWidth="1"/>
     <col min="36" max="36" width="30.9814814814815" style="1" customWidth="1"/>
     <col min="37" max="37" width="22.962962962963" style="1" customWidth="1"/>
     <col min="38" max="38" width="23.7037037037037" style="1" customWidth="1"/>
     <col min="39" max="39" width="27.6481481481481" style="1" customWidth="1"/>
     <col min="40" max="40" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="41" max="41" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="42" max="44" width="9" style="1"/>
+    <col min="41" max="46" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="47" max="47" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="48" max="48" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="49" max="49" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="50" max="50" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:41">
+    <row r="1" ht="31" customHeight="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,273 +1594,1565 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:48">
+    <row r="2" ht="114" customHeight="1" spans="1:53">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:50">
+      <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:47">
+      <c r="A4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1">
+        <v>90</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>480</v>
+      </c>
+      <c r="U4" s="1">
+        <v>480</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>400</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:50">
+      <c r="A5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>480</v>
+      </c>
+      <c r="U5" s="1">
+        <v>480</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>300</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>400</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:47">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="J6" s="1">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>400</v>
+      </c>
+      <c r="U6" s="1">
+        <v>400</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>200</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:50">
+      <c r="A7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>400</v>
+      </c>
+      <c r="U7" s="1">
+        <v>400</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:47">
+      <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1">
+        <v>72</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>300</v>
+      </c>
+      <c r="U8" s="1">
+        <v>300</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>300</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:50">
+      <c r="A9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>300</v>
+      </c>
+      <c r="U9" s="1">
+        <v>300</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>300</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:47">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>180</v>
+      </c>
+      <c r="I10" s="1">
+        <v>180</v>
+      </c>
+      <c r="J10" s="1">
+        <v>180</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>180</v>
+      </c>
+      <c r="U10" s="1">
+        <v>180</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:50">
+      <c r="A11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>180</v>
+      </c>
+      <c r="I11" s="1">
+        <v>180</v>
+      </c>
+      <c r="J11" s="1">
+        <v>180</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>180</v>
+      </c>
+      <c r="U11" s="1">
+        <v>180</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:50">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1">
+        <v>40</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="U12" s="1">
+        <v>45</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="1">
         <v>60</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:41">
-      <c r="A3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" ht="47" customHeight="1" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>88</v>
+      <c r="AC12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>700</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>900</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="A4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/DungeonShooting_ExcelTool/excelFile/Weapon.xlsx
+++ b/DungeonShooting_ExcelTool/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -344,6 +344,9 @@
     <t>vector2</t>
   </si>
   <si>
+    <t>$Sound</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
@@ -362,7 +365,7 @@
     <t>{"X":20,"Y":15}</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0002.mp3</t>
+    <t>shooting0002</t>
   </si>
   <si>
     <t>0002</t>
@@ -380,7 +383,7 @@
     <t>bullet0002</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0003.mp3</t>
+    <t>shooting0003</t>
   </si>
   <si>
     <t>0004</t>
@@ -395,10 +398,10 @@
     <t>手枪</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0001.ogg</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/Reloading0001.mp3</t>
+    <t>shooting0001</t>
+  </si>
+  <si>
+    <t>reloading0001</t>
   </si>
   <si>
     <t>0006</t>
@@ -425,10 +428,10 @@
     <t>狙击枪</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading0002.ogg</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/Reloading0004.ogg</t>
+    <t>reloading0002</t>
+  </si>
+  <si>
+    <t>reloading0004</t>
   </si>
 </sst>
 </file>
@@ -1414,11 +1417,11 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1902,16 +1905,16 @@
         <v>105</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>101</v>
@@ -1931,16 +1934,16 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:47">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2048,27 +2051,27 @@
         <v>1</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP4" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="AP4" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="AU4" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:50">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2176,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP5" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="1">
@@ -2197,16 +2200,16 @@
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:47">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2314,27 +2317,27 @@
         <v>1</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:50">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2442,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="1">
@@ -2463,16 +2466,16 @@
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:47">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -2580,33 +2583,33 @@
         <v>1</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR8" s="1">
         <v>0.3</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:50">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -2714,16 +2717,16 @@
         <v>1</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR9" s="1">
         <v>0.3</v>
@@ -2741,16 +2744,16 @@
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:47">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2858,24 +2861,24 @@
         <v>1</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:50">
       <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -2983,10 +2986,10 @@
         <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU11" s="4"/>
       <c r="AV11" s="1">
@@ -3001,16 +3004,16 @@
     </row>
     <row r="12" ht="57" customHeight="1" spans="1:50">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3058,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="U12" s="1">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -3088,10 +3091,10 @@
         <v>40</v>
       </c>
       <c r="AD12" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
         <v>700</v>
@@ -3118,25 +3121,25 @@
         <v>3</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AR12" s="1">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AT12" s="1">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="AU12" s="4"/>
       <c r="AV12" s="1">
